--- a/data/time/time_data_redo1.xlsx
+++ b/data/time/time_data_redo1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u241374_bcm_edu/Documents/virus_annotation_benchmarks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltisza/mike_tisza/github_repos/ct3_benchmarks/data/time/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{B6AF0E37-83F1-2940-99E4-AA5CD2E22E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A82D302-8576-CF4B-92D0-850C82DD9755}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E96746-B716-EA43-82FF-1F0477DBBFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1300" windowWidth="28720" windowHeight="16920" xr2:uid="{6F498D8D-21BD-704C-BFC6-1B669548F49D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="88">
   <si>
     <t>software</t>
   </si>
@@ -270,6 +270,36 @@
   </si>
   <si>
     <t>Taxon</t>
+  </si>
+  <si>
+    <t>"-m -s -g phanotate--meta_hmm"</t>
+  </si>
+  <si>
+    <t>phanotate</t>
+  </si>
+  <si>
+    <t>phar_gv_leviv_phan2</t>
+  </si>
+  <si>
+    <t>phar_gv_caudo_phan2</t>
+  </si>
+  <si>
+    <t>phar_gv_tubul_phan2</t>
+  </si>
+  <si>
+    <t>phar_gv_malgr_phan2</t>
+  </si>
+  <si>
+    <t>phar_gv_picob_phan2</t>
+  </si>
+  <si>
+    <t>phar_gv_kalam_phan2</t>
+  </si>
+  <si>
+    <t>phar_gv_vinav_phan2</t>
+  </si>
+  <si>
+    <t>phar_gv_autol_phan2</t>
   </si>
 </sst>
 </file>
@@ -635,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD28207F-56A3-E14C-AE5B-1779B0B0416F}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1298,27 +1328,27 @@
         <v>68</v>
       </c>
       <c r="L17" s="2">
-        <v>1.7745370370370369E-3</v>
+        <v>1.8680555555555555E-3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -1327,27 +1357,27 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1.1106481481481481E-3</v>
+        <v>80</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2.8537037037037038E-3</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1365,36 +1395,36 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1.4827546296296299E-3</v>
+        <v>81</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.9843865740740742E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F20">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -1403,33 +1433,33 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1.1111111111111111E-3</v>
+        <v>82</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4.1861111111111109E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>100</v>
@@ -1441,36 +1471,36 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1.1416666666666667E-3</v>
+        <v>83</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3.0197916666666672E-3</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -1479,36 +1509,36 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1.1030092592592593E-3</v>
+        <v>84</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2.5175925925925925E-3</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F23">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -1517,36 +1547,36 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1.1180555555555555E-3</v>
+        <v>85</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2.945601851851852E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F24">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -1555,36 +1585,36 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1.1108796296296294E-3</v>
+        <v>86</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2.055787037037037E-3</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -1593,36 +1623,36 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1.0873842592592593E-3</v>
+        <v>87</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.7745370370370369E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -1631,27 +1661,27 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="J26" t="s">
         <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="L26" s="3">
-        <v>2.170138888888889E-3</v>
+        <v>1.1106481481481481E-3</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1669,36 +1699,36 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="L27" s="3">
-        <v>1.5845370370370371E-2</v>
+        <v>1.4827546296296299E-3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F28">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -1707,33 +1737,33 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="L28" s="3">
-        <v>3.6072916666666671E-3</v>
+        <v>1.1111111111111111E-3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29">
         <v>100</v>
@@ -1745,36 +1775,36 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="J29" t="s">
         <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="L29" s="3">
-        <v>2.6237268518518519E-3</v>
+        <v>1.1416666666666667E-3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F30">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -1783,36 +1813,36 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
         <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L30" s="3">
-        <v>1.6861111111111111E-3</v>
+        <v>1.1030092592592593E-3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -1821,36 +1851,36 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="L31" s="3">
-        <v>3.1327546296296299E-3</v>
+        <v>1.1180555555555555E-3</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -1859,53 +1889,357 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L32" s="3">
-        <v>1.7180555555555556E-3</v>
+        <v>1.1108796296296294E-3</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1.0873842592592593E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>29</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2.170138888888889E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1.5845370370370371E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36">
+        <v>105</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="3">
+        <v>3.6072916666666671E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2.6237268518518519E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38">
+        <v>90</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1.6861111111111111E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39">
+        <v>46</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="3">
+        <v>3.1327546296296299E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40">
         <v>18</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1.7180555555555556E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
         <v>76</v>
       </c>
-      <c r="F33">
+      <c r="F41">
         <v>5</v>
       </c>
-      <c r="G33">
-        <v>10</v>
-      </c>
-      <c r="H33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
         <v>58</v>
       </c>
-      <c r="J33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
         <v>50</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L41" s="3">
         <v>1.2719907407407409E-3</v>
       </c>
     </row>

--- a/data/time/time_data_redo1.xlsx
+++ b/data/time/time_data_redo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltisza/mike_tisza/github_repos/ct3_benchmarks/data/time/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E96746-B716-EA43-82FF-1F0477DBBFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1C517E-DE70-6543-89A9-FBD765AEF92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1300" windowWidth="28720" windowHeight="16920" xr2:uid="{6F498D8D-21BD-704C-BFC6-1B669548F49D}"/>
+    <workbookView xWindow="31280" yWindow="3040" windowWidth="28720" windowHeight="16920" xr2:uid="{6F498D8D-21BD-704C-BFC6-1B669548F49D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD28207F-56A3-E14C-AE5B-1779B0B0416F}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
